--- a/freq_plot_attrib_4_post-harvest.xlsx
+++ b/freq_plot_attrib_4_post-harvest.xlsx
@@ -15,12 +15,12 @@
     <sheet name="original" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="38">
   <si>
     <t>harvest</t>
   </si>
@@ -125,6 +125,15 @@
   </si>
   <si>
     <t>freq %</t>
+  </si>
+  <si>
+    <t>silvah25  is stocked if there are &gt;9625 exposed stems/ac at least 12 inches tall</t>
+  </si>
+  <si>
+    <t>silvah2 is stocked if there are &gt;770 exposed stems/ac at least 4.5 ft tall (saplings)</t>
+  </si>
+  <si>
+    <t>silvah5 is stocked if there are &gt;1925 exposed or suppressed stems/ac at least 4.5 ft tall</t>
   </si>
 </sst>
 </file>
@@ -2544,10 +2553,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2557,7 +2566,7 @@
     <col min="6" max="6" width="16" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2577,7 +2586,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
@@ -2596,8 +2605,11 @@
       <c r="F2" s="15">
         <v>29.411764705882302</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>20</v>
       </c>
@@ -2616,8 +2628,11 @@
       <c r="F3" s="15">
         <v>70.588235294117595</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>20</v>
       </c>
@@ -2636,8 +2651,11 @@
       <c r="F4" s="15">
         <v>28.571428571428498</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>20</v>
       </c>
@@ -2657,7 +2675,7 @@
         <v>71.428571428571402</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>20</v>
       </c>
@@ -2677,7 +2695,7 @@
         <v>11.764705882352899</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>20</v>
       </c>
@@ -2697,7 +2715,7 @@
         <v>88.235294117647001</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>20</v>
       </c>
@@ -2717,7 +2735,7 @@
         <v>88.235294117647001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
@@ -2737,7 +2755,7 @@
         <v>11.764705882352899</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>20</v>
       </c>
@@ -2757,7 +2775,7 @@
         <v>59.523809523809497</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>20</v>
       </c>
@@ -2777,7 +2795,7 @@
         <v>40.476190476190403</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>20</v>
       </c>
@@ -2797,7 +2815,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>20</v>
       </c>
@@ -2817,7 +2835,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>20</v>
       </c>
@@ -2837,7 +2855,7 @@
         <v>64.705882352941103</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
@@ -2857,7 +2875,7 @@
         <v>35.294117647058798</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
